--- a/app/templates/import_communist_templates.xlsx
+++ b/app/templates/import_communist_templates.xlsx
@@ -22,9 +22,8 @@
 1.标红字段为必填
 2.手机号不可重复
 3.性别填写为"男"或"女"
-4.日期相关字段填写格式为：“1967-09-12”，入党日期需大于等于出生日期加18年；转正日期需大于等于入党日期加1年
-5.党员类别请选择以下4类之一：在职党员、在册党员、预备党员、其他
-6.请勿修改本表初始内容，否则表格可能无法导入。</t>
+4.党员类别请选择以下4类之一：在职党员、在册党员、预备党员、其他
+5.请勿修改本表初始内容，否则表格可能无法导入。</t>
   </si>
   <si>
     <t>所在支部</t>
@@ -61,10 +60,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +96,13 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -104,14 +110,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,9 +146,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,20 +221,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -162,15 +229,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -179,69 +247,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,37 +262,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,19 +412,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,121 +436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,26 +453,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,17 +486,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,7 +514,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,8 +522,34 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +561,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -567,137 +573,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -711,6 +717,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1067,7 +1076,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1110,28 +1119,27 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1142,7 +1150,7 @@
       <formula1>"男,女"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"在职党员,在册党员,发展党员,其他"</formula1>
+      <formula1>"在职党员,在册党员,预备党员,其他"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
